--- a/pred_ohlcv/54/2019-10-20 INS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-20 INS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" t="n">
-        <v>1029.1433</v>
+        <v>2947.6464</v>
       </c>
       <c r="G2" t="n">
-        <v>238.7833333333333</v>
+        <v>238.8166666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1029.1433</v>
       </c>
       <c r="G3" t="n">
         <v>238.7833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>236</v>
       </c>
       <c r="F4" t="n">
-        <v>1052.7357</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>238.7833333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D5" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" t="n">
-        <v>17414.0336</v>
+        <v>1052.7357</v>
       </c>
       <c r="G5" t="n">
-        <v>238.8166666666667</v>
+        <v>238.7833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="n">
         <v>238</v>
@@ -521,15 +538,18 @@
         <v>238</v>
       </c>
       <c r="E6" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F6" t="n">
-        <v>17.3193</v>
+        <v>17414.0336</v>
       </c>
       <c r="G6" t="n">
         <v>238.8166666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>238</v>
       </c>
       <c r="F7" t="n">
-        <v>720.5924</v>
+        <v>17.3193</v>
       </c>
       <c r="G7" t="n">
         <v>238.8166666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>238</v>
       </c>
       <c r="C8" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" t="n">
         <v>238</v>
       </c>
       <c r="F8" t="n">
-        <v>82.11752426770001</v>
+        <v>720.5924</v>
       </c>
       <c r="G8" t="n">
-        <v>238.8333333333333</v>
+        <v>238.8166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>238</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" t="n">
         <v>238</v>
       </c>
       <c r="F9" t="n">
-        <v>407</v>
+        <v>82.11752426770001</v>
       </c>
       <c r="G9" t="n">
         <v>238.8333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E10" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" t="n">
-        <v>221.7448</v>
+        <v>407</v>
       </c>
       <c r="G10" t="n">
-        <v>238.8</v>
+        <v>238.8333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" t="n">
-        <v>1539.9586</v>
+        <v>221.7448</v>
       </c>
       <c r="G11" t="n">
-        <v>238.7333333333333</v>
+        <v>238.8</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D12" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1539.9586</v>
       </c>
       <c r="G12" t="n">
-        <v>238.65</v>
+        <v>238.7333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>239</v>
       </c>
       <c r="F13" t="n">
-        <v>823.4225</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>238.5666666666667</v>
+        <v>238.65</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E14" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>823.4225</v>
       </c>
       <c r="G14" t="n">
-        <v>238.45</v>
+        <v>238.5666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>238</v>
       </c>
       <c r="F15" t="n">
-        <v>2960.1422</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>238.3833333333333</v>
+        <v>238.45</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F16" t="n">
-        <v>1965.1779</v>
+        <v>2960.1422</v>
       </c>
       <c r="G16" t="n">
-        <v>238.25</v>
+        <v>238.3833333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F17" t="n">
-        <v>17.276</v>
+        <v>1965.1779</v>
       </c>
       <c r="G17" t="n">
-        <v>238.15</v>
+        <v>238.25</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>17.276</v>
       </c>
       <c r="G18" t="n">
-        <v>238.1</v>
+        <v>238.15</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>237</v>
       </c>
       <c r="F19" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>238.0666666666667</v>
+        <v>238.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="G20" t="n">
-        <v>238.05</v>
+        <v>238.0666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>84.8185654008</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>238.0166666666667</v>
+        <v>238.05</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>237</v>
       </c>
       <c r="F22" t="n">
-        <v>87.7932489451</v>
+        <v>84.8185654008</v>
       </c>
       <c r="G22" t="n">
-        <v>237.95</v>
+        <v>238.0166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F23" t="n">
-        <v>218</v>
+        <v>87.7932489451</v>
       </c>
       <c r="G23" t="n">
-        <v>237.8333333333333</v>
+        <v>237.95</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F24" t="n">
-        <v>5548.5054</v>
+        <v>218</v>
       </c>
       <c r="G24" t="n">
-        <v>237.7166666666667</v>
+        <v>237.8333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>5548.5054</v>
       </c>
       <c r="G25" t="n">
-        <v>237.6333333333333</v>
+        <v>237.7166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>238</v>
       </c>
       <c r="F26" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>237.6166666666667</v>
+        <v>237.6333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E27" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F27" t="n">
-        <v>71.879</v>
+        <v>202</v>
       </c>
       <c r="G27" t="n">
-        <v>237.6</v>
+        <v>237.6166666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>237</v>
       </c>
       <c r="F28" t="n">
-        <v>11210</v>
+        <v>71.879</v>
       </c>
       <c r="G28" t="n">
-        <v>237.5333333333333</v>
+        <v>237.6</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F29" t="n">
-        <v>6235.5182</v>
+        <v>11210</v>
       </c>
       <c r="G29" t="n">
-        <v>237.4666666666667</v>
+        <v>237.5333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>236</v>
       </c>
       <c r="F30" t="n">
-        <v>565.251</v>
+        <v>6235.5182</v>
       </c>
       <c r="G30" t="n">
-        <v>237.3333333333333</v>
+        <v>237.4666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>236</v>
       </c>
       <c r="F31" t="n">
-        <v>2127.6595</v>
+        <v>565.251</v>
       </c>
       <c r="G31" t="n">
-        <v>237.2666666666667</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>236</v>
       </c>
       <c r="F32" t="n">
-        <v>452</v>
+        <v>2127.6595</v>
       </c>
       <c r="G32" t="n">
-        <v>237.1333333333333</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>236</v>
       </c>
       <c r="C33" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D33" t="n">
         <v>236</v>
       </c>
       <c r="E33" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F33" t="n">
-        <v>21112.7883</v>
+        <v>452</v>
       </c>
       <c r="G33" t="n">
-        <v>237.15</v>
+        <v>237.1333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C34" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D34" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E34" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" t="n">
-        <v>1197.2056</v>
+        <v>21112.7883</v>
       </c>
       <c r="G34" t="n">
-        <v>237.0166666666667</v>
+        <v>237.15</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" t="n">
         <v>234</v>
       </c>
       <c r="D35" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E35" t="n">
         <v>234</v>
       </c>
       <c r="F35" t="n">
-        <v>456.8</v>
+        <v>1197.2056</v>
       </c>
       <c r="G35" t="n">
-        <v>236.85</v>
+        <v>237.0166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C36" t="n">
         <v>234</v>
       </c>
       <c r="D36" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E36" t="n">
         <v>234</v>
       </c>
       <c r="F36" t="n">
-        <v>2170.5834</v>
+        <v>456.8</v>
       </c>
       <c r="G36" t="n">
-        <v>236.6833333333333</v>
+        <v>236.85</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F37" t="n">
-        <v>43.0327</v>
+        <v>2170.5834</v>
       </c>
       <c r="G37" t="n">
-        <v>236.5333333333333</v>
+        <v>236.6833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>235</v>
       </c>
       <c r="F38" t="n">
-        <v>279.9034</v>
+        <v>43.0327</v>
       </c>
       <c r="G38" t="n">
-        <v>236.55</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E39" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F39" t="n">
-        <v>3372.1579</v>
+        <v>279.9034</v>
       </c>
       <c r="G39" t="n">
-        <v>236.45</v>
+        <v>236.55</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>234</v>
       </c>
       <c r="F40" t="n">
-        <v>624</v>
+        <v>3372.1579</v>
       </c>
       <c r="G40" t="n">
-        <v>236.35</v>
+        <v>236.45</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>234</v>
       </c>
       <c r="F41" t="n">
-        <v>2612.9999</v>
+        <v>624</v>
       </c>
       <c r="G41" t="n">
-        <v>236.3</v>
+        <v>236.35</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>234</v>
       </c>
       <c r="F42" t="n">
-        <v>1686.5641</v>
+        <v>2612.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>236.2333333333333</v>
+        <v>236.3</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>234</v>
       </c>
       <c r="F43" t="n">
-        <v>1932.3206</v>
+        <v>1686.5641</v>
       </c>
       <c r="G43" t="n">
-        <v>236.15</v>
+        <v>236.2333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E44" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F44" t="n">
-        <v>12.7118644067</v>
+        <v>1932.3206</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1666666666667</v>
+        <v>236.15</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>236</v>
       </c>
       <c r="F45" t="n">
-        <v>955.8026</v>
+        <v>12.7118644067</v>
       </c>
       <c r="G45" t="n">
-        <v>236.2166666666667</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>236</v>
       </c>
       <c r="C46" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D46" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" t="n">
         <v>236</v>
       </c>
       <c r="F46" t="n">
-        <v>5265.8863</v>
+        <v>955.8026</v>
       </c>
       <c r="G46" t="n">
         <v>236.2166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C47" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F47" t="n">
-        <v>1979.8219</v>
+        <v>5265.8863</v>
       </c>
       <c r="G47" t="n">
-        <v>236.3</v>
+        <v>236.2166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>239</v>
       </c>
       <c r="C48" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" t="n">
         <v>239</v>
       </c>
       <c r="F48" t="n">
-        <v>165.2357</v>
+        <v>1979.8219</v>
       </c>
       <c r="G48" t="n">
-        <v>236.4</v>
+        <v>236.3</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,7 +1776,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" t="n">
         <v>240</v>
@@ -1639,15 +1785,18 @@
         <v>240</v>
       </c>
       <c r="E49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" t="n">
-        <v>1027.7416</v>
+        <v>165.2357</v>
       </c>
       <c r="G49" t="n">
-        <v>236.4333333333333</v>
+        <v>236.4</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E50" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F50" t="n">
-        <v>2344.483</v>
+        <v>1027.7416</v>
       </c>
       <c r="G50" t="n">
-        <v>236.4</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>236</v>
       </c>
       <c r="F51" t="n">
-        <v>1384.2097</v>
+        <v>2344.483</v>
       </c>
       <c r="G51" t="n">
-        <v>236.4166666666667</v>
+        <v>236.4</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>236</v>
       </c>
       <c r="F52" t="n">
-        <v>30.6023</v>
+        <v>1384.2097</v>
       </c>
       <c r="G52" t="n">
-        <v>236.3833333333333</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53" t="n">
         <v>236</v>
       </c>
       <c r="D53" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53" t="n">
         <v>236</v>
       </c>
       <c r="F53" t="n">
-        <v>549.9404</v>
+        <v>30.6023</v>
       </c>
       <c r="G53" t="n">
-        <v>236.4</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C54" t="n">
         <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" t="n">
         <v>236</v>
       </c>
       <c r="F54" t="n">
-        <v>562.1909000000001</v>
+        <v>549.9404</v>
       </c>
       <c r="G54" t="n">
-        <v>236.4166666666667</v>
+        <v>236.4</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F55" t="n">
-        <v>44.3635</v>
+        <v>562.1909000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>236.4333333333333</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>238</v>
       </c>
       <c r="F56" t="n">
-        <v>764</v>
+        <v>44.3635</v>
       </c>
       <c r="G56" t="n">
         <v>236.4333333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" t="n">
         <v>238</v>
       </c>
       <c r="D57" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" t="n">
         <v>238</v>
       </c>
       <c r="F57" t="n">
-        <v>9517.2217</v>
+        <v>764</v>
       </c>
       <c r="G57" t="n">
-        <v>236.4833333333333</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C58" t="n">
         <v>238</v>
       </c>
       <c r="D58" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E58" t="n">
         <v>238</v>
       </c>
       <c r="F58" t="n">
-        <v>3641</v>
+        <v>9517.2217</v>
       </c>
       <c r="G58" t="n">
-        <v>236.5333333333333</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>238</v>
       </c>
       <c r="F59" t="n">
-        <v>4730</v>
+        <v>3641</v>
       </c>
       <c r="G59" t="n">
-        <v>236.5833333333333</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>238</v>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>4730</v>
       </c>
       <c r="G60" t="n">
-        <v>236.6333333333333</v>
+        <v>236.5833333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" t="n">
-        <v>939.0794648535</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>236.7166666666667</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C62" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D62" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E62" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F62" t="n">
-        <v>319.8039</v>
+        <v>939.0794648535</v>
       </c>
       <c r="G62" t="n">
-        <v>236.75</v>
+        <v>236.7166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>238</v>
       </c>
       <c r="C63" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" t="n">
         <v>238</v>
       </c>
       <c r="E63" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>319.8039</v>
       </c>
       <c r="G63" t="n">
-        <v>236.7833333333333</v>
+        <v>236.75</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E64" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F64" t="n">
-        <v>620</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>236.8</v>
+        <v>236.7833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E65" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" t="n">
-        <v>1353</v>
+        <v>620</v>
       </c>
       <c r="G65" t="n">
-        <v>236.7666666666667</v>
+        <v>236.8</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>236</v>
       </c>
       <c r="C66" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D66" t="n">
         <v>236</v>
       </c>
       <c r="E66" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F66" t="n">
-        <v>14959.8305</v>
+        <v>1353</v>
       </c>
       <c r="G66" t="n">
-        <v>236.7166666666667</v>
+        <v>236.7666666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D67" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>14959.8305</v>
       </c>
       <c r="G67" t="n">
-        <v>236.7</v>
+        <v>236.7166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>237</v>
       </c>
       <c r="C68" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D68" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" t="n">
         <v>237</v>
       </c>
       <c r="F68" t="n">
-        <v>2743.5583516806</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>236.6833333333333</v>
+        <v>236.7</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C69" t="n">
         <v>238</v>
@@ -2159,15 +2365,18 @@
         <v>238</v>
       </c>
       <c r="E69" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F69" t="n">
-        <v>4132.1344537815</v>
+        <v>2743.5583516806</v>
       </c>
       <c r="G69" t="n">
         <v>236.6833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>238</v>
       </c>
       <c r="C70" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D70" t="n">
         <v>238</v>
       </c>
       <c r="E70" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F70" t="n">
-        <v>6231.84</v>
+        <v>4132.1344537815</v>
       </c>
       <c r="G70" t="n">
-        <v>236.6666666666667</v>
+        <v>236.6833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C71" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D71" t="n">
         <v>238</v>
       </c>
       <c r="E71" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F71" t="n">
-        <v>144</v>
+        <v>6231.84</v>
       </c>
       <c r="G71" t="n">
         <v>236.6666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72" t="n">
         <v>238</v>
@@ -2237,15 +2452,18 @@
         <v>238</v>
       </c>
       <c r="E72" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F72" t="n">
-        <v>385.1302</v>
+        <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>236.65</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>238</v>
       </c>
       <c r="C73" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D73" t="n">
         <v>238</v>
       </c>
       <c r="E73" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F73" t="n">
-        <v>22.878</v>
+        <v>385.1302</v>
       </c>
       <c r="G73" t="n">
-        <v>236.6</v>
+        <v>236.65</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>238</v>
       </c>
       <c r="C74" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D74" t="n">
         <v>238</v>
       </c>
       <c r="E74" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F74" t="n">
-        <v>249.7058</v>
+        <v>22.878</v>
       </c>
       <c r="G74" t="n">
         <v>236.6</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F75" t="n">
-        <v>7.6133</v>
+        <v>249.7058</v>
       </c>
       <c r="G75" t="n">
-        <v>236.5666666666667</v>
+        <v>236.6</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>236</v>
       </c>
       <c r="F76" t="n">
-        <v>877.723</v>
+        <v>7.6133</v>
       </c>
       <c r="G76" t="n">
         <v>236.5666666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C77" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D77" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E77" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F77" t="n">
-        <v>37524.6977</v>
+        <v>877.723</v>
       </c>
       <c r="G77" t="n">
-        <v>236.55</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F78" t="n">
-        <v>1501.4316</v>
+        <v>37524.6977</v>
       </c>
       <c r="G78" t="n">
-        <v>236.5333333333333</v>
+        <v>236.55</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>236</v>
       </c>
       <c r="F79" t="n">
-        <v>142.5684</v>
+        <v>1501.4316</v>
       </c>
       <c r="G79" t="n">
-        <v>236.5166666666667</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>236</v>
       </c>
       <c r="F80" t="n">
-        <v>548</v>
+        <v>142.5684</v>
       </c>
       <c r="G80" t="n">
-        <v>236.4833333333333</v>
+        <v>236.5166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E81" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F81" t="n">
-        <v>2274.3459915611</v>
+        <v>548</v>
       </c>
       <c r="G81" t="n">
         <v>236.4833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E82" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F82" t="n">
-        <v>35.3262</v>
+        <v>2274.3459915611</v>
       </c>
       <c r="G82" t="n">
-        <v>236.4666666666667</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E83" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F83" t="n">
-        <v>765</v>
+        <v>35.3262</v>
       </c>
       <c r="G83" t="n">
-        <v>236.45</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>235</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>765</v>
       </c>
       <c r="G84" t="n">
-        <v>236.4166666666667</v>
+        <v>236.45</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>236.3833333333333</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C86" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E86" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F86" t="n">
-        <v>3125.1107</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>236.3333333333333</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2878,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" t="n">
         <v>235</v>
@@ -2627,15 +2887,18 @@
         <v>235</v>
       </c>
       <c r="E87" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F87" t="n">
-        <v>301</v>
+        <v>3125.1107</v>
       </c>
       <c r="G87" t="n">
-        <v>236.3</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>235</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="G88" t="n">
-        <v>236.2666666666667</v>
+        <v>236.3</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>235</v>
       </c>
       <c r="F89" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G89" t="n">
-        <v>236.25</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E90" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G90" t="n">
-        <v>236.2</v>
+        <v>236.25</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>233</v>
       </c>
       <c r="F91" t="n">
-        <v>807.6521</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>236.15</v>
+        <v>236.2</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E92" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>807.6521</v>
       </c>
       <c r="G92" t="n">
-        <v>236.1333333333333</v>
+        <v>236.15</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>235</v>
       </c>
       <c r="F93" t="n">
-        <v>961.3106</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
         <v>236.1333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C94" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D94" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E94" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F94" t="n">
-        <v>17022.9106</v>
+        <v>961.3106</v>
       </c>
       <c r="G94" t="n">
         <v>236.1333333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" t="n">
         <v>234</v>
@@ -2835,15 +3119,18 @@
         <v>234</v>
       </c>
       <c r="E95" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F95" t="n">
-        <v>980</v>
+        <v>17022.9106</v>
       </c>
       <c r="G95" t="n">
         <v>236.1333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F96" t="n">
-        <v>4.8638</v>
+        <v>980</v>
       </c>
       <c r="G96" t="n">
-        <v>236.15</v>
+        <v>236.1333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>235</v>
       </c>
       <c r="F97" t="n">
-        <v>8.187200000000001</v>
+        <v>4.8638</v>
       </c>
       <c r="G97" t="n">
         <v>236.15</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>235</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>8.187200000000001</v>
       </c>
       <c r="G98" t="n">
         <v>236.15</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C99" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D99" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E99" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F99" t="n">
-        <v>11958.3635</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>236.15</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>233</v>
       </c>
       <c r="C100" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D100" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E100" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F100" t="n">
-        <v>990.0386</v>
+        <v>11958.3635</v>
       </c>
       <c r="G100" t="n">
-        <v>236.1333333333333</v>
+        <v>236.15</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E101" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>990.0386</v>
       </c>
       <c r="G101" t="n">
         <v>236.1333333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E102" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F102" t="n">
-        <v>425.56</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>236.1166666666667</v>
+        <v>236.1333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>233</v>
       </c>
       <c r="F103" t="n">
-        <v>166</v>
+        <v>425.56</v>
       </c>
       <c r="G103" t="n">
-        <v>236.1</v>
+        <v>236.1166666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D104" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E104" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F104" t="n">
-        <v>168.7645</v>
+        <v>166</v>
       </c>
       <c r="G104" t="n">
-        <v>236.0166666666667</v>
+        <v>236.1</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D105" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E105" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F105" t="n">
-        <v>232.6454</v>
+        <v>168.7645</v>
       </c>
       <c r="G105" t="n">
-        <v>235.9666666666667</v>
+        <v>236.0166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E106" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>232.6454</v>
       </c>
       <c r="G106" t="n">
-        <v>235.9</v>
+        <v>235.9666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>234</v>
       </c>
       <c r="F107" t="n">
-        <v>2427.6527</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>235.8166666666667</v>
+        <v>235.9</v>
       </c>
       <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>234</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2427.6527</v>
       </c>
       <c r="G108" t="n">
-        <v>235.7166666666667</v>
+        <v>235.8166666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>234</v>
       </c>
       <c r="F109" t="n">
-        <v>6064.9871</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>235.6166666666667</v>
+        <v>235.7166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F110" t="n">
-        <v>626.9</v>
+        <v>6064.9871</v>
       </c>
       <c r="G110" t="n">
-        <v>235.6</v>
+        <v>235.6166666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>235</v>
       </c>
       <c r="C111" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D111" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E111" t="n">
         <v>235</v>
       </c>
       <c r="F111" t="n">
-        <v>1325.2276</v>
+        <v>626.9</v>
       </c>
       <c r="G111" t="n">
-        <v>235.6166666666667</v>
+        <v>235.6</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>235</v>
       </c>
       <c r="C112" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D112" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E112" t="n">
         <v>235</v>
       </c>
       <c r="F112" t="n">
-        <v>3911.375</v>
+        <v>1325.2276</v>
       </c>
       <c r="G112" t="n">
-        <v>235.6</v>
+        <v>235.6166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C113" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D113" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E113" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F113" t="n">
-        <v>1498.25</v>
+        <v>3911.375</v>
       </c>
       <c r="G113" t="n">
         <v>235.6</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>234</v>
       </c>
       <c r="C114" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D114" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E114" t="n">
         <v>234</v>
       </c>
       <c r="F114" t="n">
-        <v>3987.8319</v>
+        <v>1498.25</v>
       </c>
       <c r="G114" t="n">
-        <v>235.5666666666667</v>
+        <v>235.6</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E115" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F115" t="n">
-        <v>733</v>
+        <v>3987.8319</v>
       </c>
       <c r="G115" t="n">
-        <v>235.4666666666667</v>
+        <v>235.5666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E116" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F116" t="n">
-        <v>45.5519</v>
+        <v>733</v>
       </c>
       <c r="G116" t="n">
-        <v>235.3833333333333</v>
+        <v>235.4666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>45.5519</v>
       </c>
       <c r="G117" t="n">
-        <v>235.3166666666667</v>
+        <v>235.3833333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>234</v>
       </c>
       <c r="F118" t="n">
-        <v>3465</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>235.25</v>
+        <v>235.3166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>234</v>
       </c>
       <c r="F119" t="n">
-        <v>686</v>
+        <v>3465</v>
       </c>
       <c r="G119" t="n">
-        <v>235.1833333333333</v>
+        <v>235.25</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E120" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F120" t="n">
-        <v>97</v>
+        <v>686</v>
       </c>
       <c r="G120" t="n">
-        <v>235.1</v>
+        <v>235.1833333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E121" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F121" t="n">
-        <v>1730.214</v>
+        <v>97</v>
       </c>
       <c r="G121" t="n">
-        <v>234.9833333333333</v>
+        <v>235.1</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3543,9 +3908,12 @@
         <v>1730.214</v>
       </c>
       <c r="G122" t="n">
-        <v>234.9</v>
+        <v>234.9833333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E123" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F123" t="n">
-        <v>8889.830099999999</v>
+        <v>1730.214</v>
       </c>
       <c r="G123" t="n">
-        <v>234.7833333333333</v>
+        <v>234.9</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C124" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D124" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E124" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F124" t="n">
-        <v>2360</v>
+        <v>8889.830099999999</v>
       </c>
       <c r="G124" t="n">
-        <v>234.7</v>
+        <v>234.7833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C125" t="n">
         <v>232</v>
       </c>
       <c r="D125" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E125" t="n">
         <v>232</v>
       </c>
       <c r="F125" t="n">
-        <v>346</v>
+        <v>2360</v>
       </c>
       <c r="G125" t="n">
-        <v>234.6333333333333</v>
+        <v>234.7</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>232</v>
       </c>
       <c r="F126" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="G126" t="n">
-        <v>234.5833333333333</v>
+        <v>234.6333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>232</v>
       </c>
       <c r="F127" t="n">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G127" t="n">
-        <v>234.5</v>
+        <v>234.5833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>232</v>
       </c>
       <c r="F128" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G128" t="n">
-        <v>234.4</v>
+        <v>234.5</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C129" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D129" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E129" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="G129" t="n">
-        <v>234.3166666666667</v>
+        <v>234.4</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>233</v>
       </c>
       <c r="F130" t="n">
-        <v>462</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>234.2833333333333</v>
+        <v>234.3166666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>233</v>
       </c>
       <c r="F131" t="n">
-        <v>176</v>
+        <v>462</v>
       </c>
       <c r="G131" t="n">
-        <v>234.2</v>
+        <v>234.2833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>233</v>
       </c>
       <c r="F132" t="n">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="G132" t="n">
-        <v>234.1166666666667</v>
+        <v>234.2</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,7 +4212,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C133" t="n">
         <v>233</v>
@@ -3823,15 +4221,18 @@
         <v>233</v>
       </c>
       <c r="E133" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F133" t="n">
-        <v>23629</v>
+        <v>225</v>
       </c>
       <c r="G133" t="n">
-        <v>234.0666666666667</v>
+        <v>234.1166666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>231</v>
       </c>
       <c r="F134" t="n">
-        <v>13483</v>
+        <v>23629</v>
       </c>
       <c r="G134" t="n">
-        <v>233.9833333333333</v>
+        <v>234.0666666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4270,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C135" t="n">
         <v>233</v>
@@ -3875,15 +4279,18 @@
         <v>233</v>
       </c>
       <c r="E135" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F135" t="n">
-        <v>12344.9023</v>
+        <v>13483</v>
       </c>
       <c r="G135" t="n">
-        <v>233.9333333333333</v>
+        <v>233.9833333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3901,15 +4308,18 @@
         <v>233</v>
       </c>
       <c r="E136" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F136" t="n">
-        <v>858.3690987124</v>
+        <v>12344.9023</v>
       </c>
       <c r="G136" t="n">
-        <v>233.8833333333333</v>
+        <v>233.9333333333333</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C137" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D137" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E137" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F137" t="n">
-        <v>14188.3203827586</v>
+        <v>858.3690987124</v>
       </c>
       <c r="G137" t="n">
-        <v>233.85</v>
+        <v>233.8833333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C138" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D138" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E138" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F138" t="n">
-        <v>139</v>
+        <v>14188.3203827586</v>
       </c>
       <c r="G138" t="n">
-        <v>233.7666666666667</v>
+        <v>233.85</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>231</v>
       </c>
       <c r="F139" t="n">
-        <v>605</v>
+        <v>139</v>
       </c>
       <c r="G139" t="n">
-        <v>233.6833333333333</v>
+        <v>233.7666666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F140" t="n">
-        <v>15477.817</v>
+        <v>605</v>
       </c>
       <c r="G140" t="n">
-        <v>233.5833333333333</v>
+        <v>233.6833333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E141" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>15477.817</v>
       </c>
       <c r="G141" t="n">
-        <v>233.4833333333333</v>
+        <v>233.5833333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E142" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F142" t="n">
-        <v>1079.9999</v>
+        <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>233.4166666666667</v>
+        <v>233.4833333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>1079.9999</v>
       </c>
       <c r="G143" t="n">
         <v>233.4166666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>235</v>
       </c>
       <c r="F144" t="n">
-        <v>9140.3603</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
         <v>233.4166666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C145" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D145" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E145" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F145" t="n">
-        <v>501</v>
+        <v>9140.3603</v>
       </c>
       <c r="G145" t="n">
         <v>233.4166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,7 +4589,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C146" t="n">
         <v>236</v>
@@ -4161,15 +4598,18 @@
         <v>236</v>
       </c>
       <c r="E146" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F146" t="n">
-        <v>1364</v>
+        <v>501</v>
       </c>
       <c r="G146" t="n">
-        <v>233.4333333333333</v>
+        <v>233.4166666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E147" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F147" t="n">
-        <v>29.7932</v>
+        <v>1364</v>
       </c>
       <c r="G147" t="n">
-        <v>233.4666666666667</v>
+        <v>233.4333333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>237</v>
       </c>
       <c r="F148" t="n">
-        <v>17.5409</v>
+        <v>29.7932</v>
       </c>
       <c r="G148" t="n">
-        <v>233.5</v>
+        <v>233.4666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E149" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F149" t="n">
-        <v>1123.3432</v>
+        <v>17.5409</v>
       </c>
       <c r="G149" t="n">
-        <v>233.5166666666667</v>
+        <v>233.5</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C150" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D150" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E150" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F150" t="n">
-        <v>5614.26</v>
+        <v>1123.3432</v>
       </c>
       <c r="G150" t="n">
         <v>233.5166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C151" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D151" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E151" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F151" t="n">
-        <v>1174</v>
+        <v>5614.26</v>
       </c>
       <c r="G151" t="n">
-        <v>233.5666666666667</v>
+        <v>233.5166666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C152" t="n">
         <v>236</v>
@@ -4317,15 +4772,18 @@
         <v>236</v>
       </c>
       <c r="E152" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F152" t="n">
-        <v>512.7371000000001</v>
+        <v>1174</v>
       </c>
       <c r="G152" t="n">
-        <v>233.5833333333333</v>
+        <v>233.5666666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4792,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C153" t="n">
         <v>236</v>
@@ -4343,15 +4801,18 @@
         <v>236</v>
       </c>
       <c r="E153" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F153" t="n">
-        <v>1995.9999</v>
+        <v>512.7371000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>233.6</v>
+        <v>233.5833333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E154" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F154" t="n">
-        <v>4410.5278</v>
+        <v>1995.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>233.6166666666667</v>
+        <v>233.6</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E155" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F155" t="n">
-        <v>768.1867</v>
+        <v>4410.5278</v>
       </c>
       <c r="G155" t="n">
         <v>233.6166666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>234</v>
       </c>
       <c r="C156" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D156" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E156" t="n">
         <v>234</v>
       </c>
       <c r="F156" t="n">
-        <v>2127.186</v>
+        <v>768.1867</v>
       </c>
       <c r="G156" t="n">
         <v>233.6166666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C157" t="n">
         <v>235</v>
@@ -4447,15 +4917,18 @@
         <v>235</v>
       </c>
       <c r="E157" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F157" t="n">
-        <v>5020.47</v>
+        <v>2127.186</v>
       </c>
       <c r="G157" t="n">
         <v>233.6166666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>235</v>
       </c>
       <c r="F158" t="n">
-        <v>1962.3509</v>
+        <v>5020.47</v>
       </c>
       <c r="G158" t="n">
         <v>233.6166666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4966,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C159" t="n">
         <v>235</v>
@@ -4499,15 +4975,18 @@
         <v>235</v>
       </c>
       <c r="E159" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F159" t="n">
-        <v>822.1286</v>
+        <v>1962.3509</v>
       </c>
       <c r="G159" t="n">
-        <v>233.6333333333333</v>
+        <v>233.6166666666667</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C160" t="n">
         <v>235</v>
@@ -4525,15 +5004,18 @@
         <v>235</v>
       </c>
       <c r="E160" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F160" t="n">
-        <v>545.1635</v>
+        <v>822.1286</v>
       </c>
       <c r="G160" t="n">
-        <v>233.6666666666667</v>
+        <v>233.6333333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>235</v>
       </c>
       <c r="F161" t="n">
-        <v>1110.333</v>
+        <v>545.1635</v>
       </c>
       <c r="G161" t="n">
-        <v>233.6833333333333</v>
+        <v>233.6666666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>235</v>
       </c>
       <c r="F162" t="n">
-        <v>594.1781999999999</v>
+        <v>1110.333</v>
       </c>
       <c r="G162" t="n">
-        <v>233.7166666666667</v>
+        <v>233.6833333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>235</v>
       </c>
       <c r="F163" t="n">
-        <v>247.5604</v>
+        <v>594.1781999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>233.75</v>
+        <v>233.7166666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>235</v>
       </c>
       <c r="F164" t="n">
-        <v>3579.0737</v>
+        <v>247.5604</v>
       </c>
       <c r="G164" t="n">
-        <v>233.8166666666667</v>
+        <v>233.75</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>235</v>
       </c>
       <c r="F165" t="n">
-        <v>244.0732</v>
+        <v>3579.0737</v>
       </c>
       <c r="G165" t="n">
-        <v>233.85</v>
+        <v>233.8166666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>235</v>
       </c>
       <c r="F166" t="n">
-        <v>371.1113</v>
+        <v>244.0732</v>
       </c>
       <c r="G166" t="n">
-        <v>233.8666666666667</v>
+        <v>233.85</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E167" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F167" t="n">
-        <v>148.3545</v>
+        <v>371.1113</v>
       </c>
       <c r="G167" t="n">
         <v>233.8666666666667</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>234</v>
       </c>
       <c r="C168" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D168" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E168" t="n">
         <v>234</v>
       </c>
       <c r="F168" t="n">
-        <v>381.9609</v>
+        <v>148.3545</v>
       </c>
       <c r="G168" t="n">
-        <v>233.8833333333333</v>
+        <v>233.8666666666667</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C169" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D169" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E169" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F169" t="n">
-        <v>1200.2407</v>
+        <v>381.9609</v>
       </c>
       <c r="G169" t="n">
-        <v>233.9166666666667</v>
+        <v>233.8833333333333</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C170" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D170" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E170" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>1200.2407</v>
       </c>
       <c r="G170" t="n">
-        <v>233.9666666666667</v>
+        <v>233.9166666666667</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,7 +5314,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C171" t="n">
         <v>238</v>
@@ -4811,15 +5323,18 @@
         <v>238</v>
       </c>
       <c r="E171" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F171" t="n">
-        <v>811.7563</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>233.9833333333333</v>
+        <v>233.9666666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>238</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>811.7563</v>
       </c>
       <c r="G172" t="n">
-        <v>234.0333333333333</v>
+        <v>233.9833333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>238</v>
       </c>
       <c r="F173" t="n">
-        <v>1830.0488</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>234.0666666666667</v>
+        <v>234.0333333333333</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>238</v>
       </c>
       <c r="F174" t="n">
-        <v>836</v>
+        <v>1830.0488</v>
       </c>
       <c r="G174" t="n">
-        <v>234.1333333333333</v>
+        <v>234.0666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>238</v>
       </c>
       <c r="F175" t="n">
-        <v>1203</v>
+        <v>836</v>
       </c>
       <c r="G175" t="n">
-        <v>234.2333333333333</v>
+        <v>234.1333333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>238</v>
       </c>
       <c r="F176" t="n">
-        <v>896.178</v>
+        <v>1203</v>
       </c>
       <c r="G176" t="n">
-        <v>234.3166666666667</v>
+        <v>234.2333333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>238</v>
       </c>
       <c r="F177" t="n">
-        <v>6.2647</v>
+        <v>896.178</v>
       </c>
       <c r="G177" t="n">
-        <v>234.3833333333333</v>
+        <v>234.3166666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E178" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F178" t="n">
         <v>6.2647</v>
       </c>
       <c r="G178" t="n">
-        <v>234.4</v>
+        <v>234.3833333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E179" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>6.2647</v>
       </c>
       <c r="G179" t="n">
-        <v>234.4833333333333</v>
+        <v>234.4</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C180" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D180" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E180" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F180" t="n">
-        <v>16556.2871</v>
+        <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>234.6333333333333</v>
+        <v>234.4833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>238</v>
+      </c>
+      <c r="C181" t="n">
         <v>242</v>
-      </c>
-      <c r="C181" t="n">
-        <v>240</v>
       </c>
       <c r="D181" t="n">
         <v>242</v>
       </c>
       <c r="E181" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F181" t="n">
-        <v>2361.7136</v>
+        <v>16556.2871</v>
       </c>
       <c r="G181" t="n">
-        <v>234.7666666666667</v>
+        <v>234.6333333333333</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,25 +5633,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C182" t="n">
         <v>240</v>
       </c>
       <c r="D182" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E182" t="n">
         <v>240</v>
       </c>
       <c r="F182" t="n">
-        <v>2054.0535</v>
+        <v>2361.7136</v>
       </c>
       <c r="G182" t="n">
-        <v>234.9</v>
+        <v>234.7666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5126,13 +5674,16 @@
         <v>240</v>
       </c>
       <c r="F183" t="n">
-        <v>2497.7492</v>
+        <v>2054.0535</v>
       </c>
       <c r="G183" t="n">
-        <v>235.05</v>
+        <v>234.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5143,21 +5694,24 @@
         <v>240</v>
       </c>
       <c r="C184" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D184" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E184" t="n">
         <v>240</v>
       </c>
       <c r="F184" t="n">
-        <v>995.2978000000001</v>
+        <v>2497.7492</v>
       </c>
       <c r="G184" t="n">
-        <v>235.2166666666667</v>
+        <v>235.05</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,7 +5720,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C185" t="n">
         <v>242</v>
@@ -5175,15 +5729,18 @@
         <v>242</v>
       </c>
       <c r="E185" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F185" t="n">
-        <v>529.9032</v>
+        <v>995.2978000000001</v>
       </c>
       <c r="G185" t="n">
-        <v>235.3833333333333</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,7 +5749,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C186" t="n">
         <v>242</v>
@@ -5201,15 +5758,18 @@
         <v>242</v>
       </c>
       <c r="E186" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F186" t="n">
-        <v>5262.9881</v>
+        <v>529.9032</v>
       </c>
       <c r="G186" t="n">
-        <v>235.55</v>
+        <v>235.3833333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>241</v>
+      </c>
+      <c r="C187" t="n">
         <v>242</v>
-      </c>
-      <c r="C187" t="n">
-        <v>239</v>
       </c>
       <c r="D187" t="n">
         <v>242</v>
       </c>
       <c r="E187" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F187" t="n">
-        <v>4170.078</v>
+        <v>5262.9881</v>
       </c>
       <c r="G187" t="n">
-        <v>235.6666666666667</v>
+        <v>235.55</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C188" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D188" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E188" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F188" t="n">
-        <v>448.2049</v>
+        <v>4170.078</v>
       </c>
       <c r="G188" t="n">
-        <v>235.8</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E189" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F189" t="n">
-        <v>2104.9335850622</v>
+        <v>448.2049</v>
       </c>
       <c r="G189" t="n">
-        <v>235.9333333333333</v>
+        <v>235.8</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>241</v>
       </c>
       <c r="F190" t="n">
-        <v>1749.7924</v>
+        <v>2104.9335850622</v>
       </c>
       <c r="G190" t="n">
-        <v>236.0666666666667</v>
+        <v>235.9333333333333</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,7 +5894,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C191" t="n">
         <v>241</v>
@@ -5331,15 +5903,18 @@
         <v>241</v>
       </c>
       <c r="E191" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F191" t="n">
-        <v>1069.5848</v>
+        <v>1749.7924</v>
       </c>
       <c r="G191" t="n">
-        <v>236.2</v>
+        <v>236.0666666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C192" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D192" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E192" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F192" t="n">
-        <v>4319.6404198347</v>
+        <v>1069.5848</v>
       </c>
       <c r="G192" t="n">
-        <v>236.35</v>
+        <v>236.2</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>242</v>
       </c>
       <c r="F193" t="n">
-        <v>972.4545000000001</v>
+        <v>4319.6404198347</v>
       </c>
       <c r="G193" t="n">
-        <v>236.5</v>
+        <v>236.35</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>242</v>
       </c>
       <c r="F194" t="n">
-        <v>4280.2809</v>
+        <v>972.4545000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>236.65</v>
+        <v>236.5</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C195" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D195" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E195" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F195" t="n">
-        <v>6550.8586</v>
+        <v>4280.2809</v>
       </c>
       <c r="G195" t="n">
-        <v>236.7833333333333</v>
+        <v>236.65</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C196" t="n">
         <v>241</v>
       </c>
       <c r="D196" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E196" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F196" t="n">
-        <v>660.1203319502</v>
+        <v>6550.8586</v>
       </c>
       <c r="G196" t="n">
-        <v>236.9166666666667</v>
+        <v>236.7833333333333</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,22 +6071,25 @@
         <v>241</v>
       </c>
       <c r="C197" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D197" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E197" t="n">
         <v>241</v>
       </c>
       <c r="F197" t="n">
-        <v>3862.946</v>
+        <v>660.1203319502</v>
       </c>
       <c r="G197" t="n">
-        <v>237.0833333333333</v>
+        <v>236.9166666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5504,25 +6097,28 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>241</v>
+      </c>
+      <c r="C198" t="n">
         <v>242</v>
-      </c>
-      <c r="C198" t="n">
-        <v>240</v>
       </c>
       <c r="D198" t="n">
         <v>242</v>
       </c>
       <c r="E198" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F198" t="n">
-        <v>513.471</v>
+        <v>3862.946</v>
       </c>
       <c r="G198" t="n">
-        <v>237.2333333333333</v>
+        <v>237.0833333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5530,25 +6126,28 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C199" t="n">
         <v>240</v>
       </c>
       <c r="D199" t="n">
+        <v>242</v>
+      </c>
+      <c r="E199" t="n">
         <v>240</v>
       </c>
-      <c r="E199" t="n">
-        <v>239</v>
-      </c>
       <c r="F199" t="n">
-        <v>552.7021999999999</v>
+        <v>513.471</v>
       </c>
       <c r="G199" t="n">
-        <v>237.3833333333333</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5556,7 +6155,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C200" t="n">
         <v>240</v>
@@ -5565,16 +6164,19 @@
         <v>240</v>
       </c>
       <c r="E200" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F200" t="n">
-        <v>233.2931</v>
+        <v>552.7021999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>237.55</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5582,25 +6184,28 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E201" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F201" t="n">
-        <v>1098.4659</v>
+        <v>233.2931</v>
       </c>
       <c r="G201" t="n">
-        <v>237.6833333333333</v>
+        <v>237.55</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5608,25 +6213,28 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E202" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>1098.4659</v>
       </c>
       <c r="G202" t="n">
-        <v>237.8166666666667</v>
+        <v>237.6833333333333</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5646,13 +6254,16 @@
         <v>240</v>
       </c>
       <c r="F203" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>237.9</v>
+        <v>237.8166666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E204" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F204" t="n">
-        <v>11.0602</v>
+        <v>180</v>
       </c>
       <c r="G204" t="n">
-        <v>237.9666666666667</v>
+        <v>237.9</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E205" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F205" t="n">
-        <v>798.6667</v>
+        <v>11.0602</v>
       </c>
       <c r="G205" t="n">
-        <v>238</v>
+        <v>237.9666666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C206" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D206" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E206" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F206" t="n">
-        <v>1097.3493</v>
+        <v>798.6667</v>
       </c>
       <c r="G206" t="n">
         <v>238</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>236</v>
       </c>
       <c r="F207" t="n">
-        <v>4280.2809</v>
+        <v>1097.3493</v>
       </c>
       <c r="G207" t="n">
-        <v>237.9833333333333</v>
+        <v>238</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,21 +6390,24 @@
         <v>237</v>
       </c>
       <c r="C208" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D208" t="n">
         <v>237</v>
       </c>
       <c r="E208" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F208" t="n">
-        <v>45.2444</v>
+        <v>4280.2809</v>
       </c>
       <c r="G208" t="n">
         <v>237.9833333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E209" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F209" t="n">
-        <v>217.1149</v>
+        <v>45.2444</v>
       </c>
       <c r="G209" t="n">
         <v>237.9833333333333</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E210" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F210" t="n">
-        <v>333.0999</v>
+        <v>217.1149</v>
       </c>
       <c r="G210" t="n">
-        <v>238.05</v>
+        <v>237.9833333333333</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E211" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F211" t="n">
-        <v>29.4346</v>
+        <v>333.0999</v>
       </c>
       <c r="G211" t="n">
-        <v>238.0333333333333</v>
+        <v>238.05</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E212" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F212" t="n">
-        <v>1519</v>
+        <v>29.4346</v>
       </c>
       <c r="G212" t="n">
-        <v>238.05</v>
+        <v>238.0333333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>237</v>
       </c>
       <c r="F213" t="n">
-        <v>1491.059</v>
+        <v>1519</v>
       </c>
       <c r="G213" t="n">
-        <v>238.0666666666667</v>
+        <v>238.05</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>237</v>
       </c>
       <c r="F214" t="n">
-        <v>4450.6016</v>
+        <v>1491.059</v>
       </c>
       <c r="G214" t="n">
-        <v>238.1</v>
+        <v>238.0666666666667</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E215" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F215" t="n">
-        <v>436.1308</v>
+        <v>4450.6016</v>
       </c>
       <c r="G215" t="n">
-        <v>238.1666666666667</v>
+        <v>238.1</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>238</v>
       </c>
       <c r="C216" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D216" t="n">
         <v>238</v>
       </c>
       <c r="E216" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F216" t="n">
-        <v>3863.1317</v>
+        <v>436.1308</v>
       </c>
       <c r="G216" t="n">
-        <v>238.2</v>
+        <v>238.1666666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C217" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D217" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E217" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F217" t="n">
-        <v>43.422</v>
+        <v>3863.1317</v>
       </c>
       <c r="G217" t="n">
-        <v>238.2166666666667</v>
+        <v>238.2</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>236</v>
       </c>
       <c r="F218" t="n">
-        <v>5949.5563</v>
+        <v>43.422</v>
       </c>
       <c r="G218" t="n">
-        <v>238.2333333333333</v>
+        <v>238.2166666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E219" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F219" t="n">
-        <v>2</v>
+        <v>5949.5563</v>
       </c>
       <c r="G219" t="n">
-        <v>238.2666666666667</v>
+        <v>238.2333333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C220" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D220" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E220" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F220" t="n">
-        <v>1495.507</v>
+        <v>2</v>
       </c>
       <c r="G220" t="n">
-        <v>238.2833333333333</v>
+        <v>238.2666666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C221" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D221" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E221" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F221" t="n">
-        <v>136.1942</v>
+        <v>1495.507</v>
       </c>
       <c r="G221" t="n">
-        <v>238.2666666666667</v>
+        <v>238.2833333333333</v>
       </c>
       <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6131,21 +6796,24 @@
         <v>234</v>
       </c>
       <c r="C222" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D222" t="n">
         <v>234</v>
       </c>
       <c r="E222" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F222" t="n">
-        <v>4659.3278</v>
+        <v>136.1942</v>
       </c>
       <c r="G222" t="n">
-        <v>238.2333333333333</v>
+        <v>238.2666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>233</v>
       </c>
       <c r="F223" t="n">
-        <v>9305.8606</v>
+        <v>4659.3278</v>
       </c>
       <c r="G223" t="n">
-        <v>238.2</v>
+        <v>238.2333333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,21 +6854,24 @@
         <v>234</v>
       </c>
       <c r="C224" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D224" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E224" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F224" t="n">
-        <v>3455.1816</v>
+        <v>9305.8606</v>
       </c>
       <c r="G224" t="n">
-        <v>238.2166666666667</v>
+        <v>238.2</v>
       </c>
       <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C225" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D225" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E225" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F225" t="n">
-        <v>1649.1594</v>
+        <v>3455.1816</v>
       </c>
       <c r="G225" t="n">
         <v>238.2166666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>235</v>
       </c>
       <c r="F226" t="n">
-        <v>430.129</v>
+        <v>1649.1594</v>
       </c>
       <c r="G226" t="n">
         <v>238.2166666666667</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,532 +6950,15 @@
         <v>235</v>
       </c>
       <c r="F227" t="n">
-        <v>530.0872000000001</v>
+        <v>430.129</v>
       </c>
       <c r="G227" t="n">
-        <v>238.2333333333333</v>
+        <v>238.2166666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>235</v>
-      </c>
-      <c r="C228" t="n">
-        <v>237</v>
-      </c>
-      <c r="D228" t="n">
-        <v>237</v>
-      </c>
-      <c r="E228" t="n">
-        <v>235</v>
-      </c>
-      <c r="F228" t="n">
-        <v>20287.9788</v>
-      </c>
-      <c r="G228" t="n">
-        <v>238.2666666666667</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>235</v>
-      </c>
-      <c r="C229" t="n">
-        <v>235</v>
-      </c>
-      <c r="D229" t="n">
-        <v>235</v>
-      </c>
-      <c r="E229" t="n">
-        <v>235</v>
-      </c>
-      <c r="F229" t="n">
-        <v>681.814</v>
-      </c>
-      <c r="G229" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>234</v>
-      </c>
-      <c r="C230" t="n">
-        <v>234</v>
-      </c>
-      <c r="D230" t="n">
-        <v>234</v>
-      </c>
-      <c r="E230" t="n">
-        <v>234</v>
-      </c>
-      <c r="F230" t="n">
-        <v>920.154</v>
-      </c>
-      <c r="G230" t="n">
-        <v>238.1833333333333</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>234</v>
-      </c>
-      <c r="C231" t="n">
-        <v>234</v>
-      </c>
-      <c r="D231" t="n">
-        <v>234</v>
-      </c>
-      <c r="E231" t="n">
-        <v>234</v>
-      </c>
-      <c r="F231" t="n">
-        <v>429.1287</v>
-      </c>
-      <c r="G231" t="n">
-        <v>238.1166666666667</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>234</v>
-      </c>
-      <c r="C232" t="n">
-        <v>234</v>
-      </c>
-      <c r="D232" t="n">
-        <v>234</v>
-      </c>
-      <c r="E232" t="n">
-        <v>234</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3412.0235</v>
-      </c>
-      <c r="G232" t="n">
-        <v>238.05</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>233</v>
-      </c>
-      <c r="C233" t="n">
-        <v>234</v>
-      </c>
-      <c r="D233" t="n">
-        <v>234</v>
-      </c>
-      <c r="E233" t="n">
-        <v>232</v>
-      </c>
-      <c r="F233" t="n">
-        <v>6470.0121</v>
-      </c>
-      <c r="G233" t="n">
-        <v>237.9833333333333</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>234</v>
-      </c>
-      <c r="C234" t="n">
-        <v>234</v>
-      </c>
-      <c r="D234" t="n">
-        <v>234</v>
-      </c>
-      <c r="E234" t="n">
-        <v>234</v>
-      </c>
-      <c r="F234" t="n">
-        <v>969.0272</v>
-      </c>
-      <c r="G234" t="n">
-        <v>237.9166666666667</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>234</v>
-      </c>
-      <c r="C235" t="n">
-        <v>234</v>
-      </c>
-      <c r="D235" t="n">
-        <v>234</v>
-      </c>
-      <c r="E235" t="n">
-        <v>234</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1067.5071</v>
-      </c>
-      <c r="G235" t="n">
-        <v>237.85</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>234</v>
-      </c>
-      <c r="C236" t="n">
-        <v>234</v>
-      </c>
-      <c r="D236" t="n">
-        <v>234</v>
-      </c>
-      <c r="E236" t="n">
-        <v>234</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1328.4759</v>
-      </c>
-      <c r="G236" t="n">
-        <v>237.7833333333333</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>234</v>
-      </c>
-      <c r="C237" t="n">
-        <v>234</v>
-      </c>
-      <c r="D237" t="n">
-        <v>234</v>
-      </c>
-      <c r="E237" t="n">
-        <v>234</v>
-      </c>
-      <c r="F237" t="n">
-        <v>420.126</v>
-      </c>
-      <c r="G237" t="n">
-        <v>237.7166666666667</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>234</v>
-      </c>
-      <c r="C238" t="n">
-        <v>234</v>
-      </c>
-      <c r="D238" t="n">
-        <v>234</v>
-      </c>
-      <c r="E238" t="n">
-        <v>233</v>
-      </c>
-      <c r="F238" t="n">
-        <v>5731.952</v>
-      </c>
-      <c r="G238" t="n">
-        <v>237.7</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>234</v>
-      </c>
-      <c r="C239" t="n">
-        <v>234</v>
-      </c>
-      <c r="D239" t="n">
-        <v>234</v>
-      </c>
-      <c r="E239" t="n">
-        <v>234</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1373.2427</v>
-      </c>
-      <c r="G239" t="n">
-        <v>237.6166666666667</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>234</v>
-      </c>
-      <c r="C240" t="n">
-        <v>234</v>
-      </c>
-      <c r="D240" t="n">
-        <v>234</v>
-      </c>
-      <c r="E240" t="n">
-        <v>234</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1302.3299</v>
-      </c>
-      <c r="G240" t="n">
-        <v>237.4833333333333</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>234</v>
-      </c>
-      <c r="C241" t="n">
-        <v>234</v>
-      </c>
-      <c r="D241" t="n">
-        <v>234</v>
-      </c>
-      <c r="E241" t="n">
-        <v>234</v>
-      </c>
-      <c r="F241" t="n">
-        <v>4025.6412</v>
-      </c>
-      <c r="G241" t="n">
-        <v>237.3833333333333</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>234</v>
-      </c>
-      <c r="C242" t="n">
-        <v>234</v>
-      </c>
-      <c r="D242" t="n">
-        <v>234</v>
-      </c>
-      <c r="E242" t="n">
-        <v>234</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2668.8837</v>
-      </c>
-      <c r="G242" t="n">
-        <v>237.2833333333333</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>235</v>
-      </c>
-      <c r="C243" t="n">
-        <v>235</v>
-      </c>
-      <c r="D243" t="n">
-        <v>235</v>
-      </c>
-      <c r="E243" t="n">
-        <v>235</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1741.6227</v>
-      </c>
-      <c r="G243" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>236</v>
-      </c>
-      <c r="C244" t="n">
-        <v>236</v>
-      </c>
-      <c r="D244" t="n">
-        <v>236</v>
-      </c>
-      <c r="E244" t="n">
-        <v>236</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1565.6227</v>
-      </c>
-      <c r="G244" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>237</v>
-      </c>
-      <c r="C245" t="n">
-        <v>237</v>
-      </c>
-      <c r="D245" t="n">
-        <v>237</v>
-      </c>
-      <c r="E245" t="n">
-        <v>237</v>
-      </c>
-      <c r="F245" t="n">
-        <v>3359.6834</v>
-      </c>
-      <c r="G245" t="n">
-        <v>237.0166666666667</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>238</v>
-      </c>
-      <c r="C246" t="n">
-        <v>238</v>
-      </c>
-      <c r="D246" t="n">
-        <v>238</v>
-      </c>
-      <c r="E246" t="n">
-        <v>238</v>
-      </c>
-      <c r="F246" t="n">
-        <v>4500.3025</v>
-      </c>
-      <c r="G246" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>239</v>
-      </c>
-      <c r="C247" t="n">
-        <v>239</v>
-      </c>
-      <c r="D247" t="n">
-        <v>239</v>
-      </c>
-      <c r="E247" t="n">
-        <v>239</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1</v>
-      </c>
-      <c r="G247" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="H247" t="n">
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
